--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-16T13:17:44+00:00</t>
+    <t>2025-02-26T09:37:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-26T09:37:05+00:00</t>
+    <t>2025-03-18T14:32:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -269,16 +269,15 @@
   </si>
   <si>
     <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}lr-allowed-resources:Bundle kan bare inneholde følgende ressurstyper: Pasient, Helsepersonell, Legemiddel, LegemiddelAdministrasjon, Diagnose, Institusjonsopphold, Legemiddelrekvirering, Organisasjon, Helsepersonellrolle {entry.all(
-  resource.ofType(Patient) or 
-  resource.ofType(Practitioner) or 
-  resource.ofType(Medication) or 
-  resource.ofType(MedicationAdministration) or 
-  resource.ofType(Condition) or 
-  resource.ofType(EpisodeOfCare) or 
-  resource.ofType(MedicationRequest) or 
-  resource.ofType(Organization) or 
-  resource.ofType(PractitionerRole)
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}lr-allowed-resources:Bundle kan bare inneholde følgende profilerte ressurstyper: Diagnose, Helsepersonell, Episode, Legemiddel, LegemiddelAdministrasjon, Legemiddelrekvirering, Organisasjon, Pasient {entry.all(
+  resource.meta.profile.where($this = 'http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-condition').exists() or 
+  resource.meta.profile.where($this = 'http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-practitioner').exists() or 
+  resource.meta.profile.where($this = 'http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-encounter').exists() or 
+  resource.meta.profile.where($this = 'http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-medication').exists() or 
+  resource.meta.profile.where($this = 'http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-medicationadministration').exists() or 
+  resource.meta.profile.where($this = 'http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-medicationrequest').exists() or 
+  resource.meta.profile.where($this = 'http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-organization').exists() or 
+  resource.meta.profile.where($this = 'http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-patient').exists()
 )}</t>
   </si>
   <si>
